--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:32:15+00:00</t>
+    <t>2021-11-25T06:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T06:07:33+00:00</t>
+    <t>2021-11-25T07:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/structuredefinition/no-basis-appointment/group</t>
+    <t>http://hl7.no/fhir/structuredefinition/no-basis-appointment/no-basis-group</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T07:05:56+00:00</t>
+    <t>2021-11-25T08:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T08:52:25+00:00</t>
+    <t>2021-11-25T21:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T21:16:57+00:00</t>
+    <t>2021-12-15T08:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T08:30:53+00:00</t>
+    <t>2021-12-15T12:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:34:15+00:00</t>
+    <t>2021-12-15T12:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:39:33+00:00</t>
+    <t>2021-12-15T13:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T13:42:09+00:00</t>
+    <t>2021-12-16T21:16:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T21:16:53+00:00</t>
+    <t>2021-12-17T09:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:07:58+00:00</t>
+    <t>2021-12-17T09:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:19:31+00:00</t>
+    <t>2021-12-17T12:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T12:06:07+00:00</t>
+    <t>2022-01-10T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T12:40:13+00:00</t>
+    <t>2022-01-11T09:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:12:02+00:00</t>
+    <t>2022-01-17T12:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T12:49:07+00:00</t>
+    <t>2022-02-09T19:12:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-09T19:12:46+00:00</t>
+    <t>2022-02-16T10:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T10:05:43+00:00</t>
+    <t>2023-04-28T21:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,6 +123,9 @@
     <t>element:Appointment</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -238,6 +241,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -250,60 +257,60 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -642,7 +649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -651,42 +658,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -798,133 +805,139 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>81</v>
@@ -932,99 +945,102 @@
       <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>88</v>
@@ -1035,272 +1051,281 @@
       <c r="M4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/structuredefinition/no-basis-appointment/no-basis-group</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-group</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:16:27+00:00</t>
+    <t>2024-05-29T11:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The basis extension defines a boolean concept that expresses the possibility to meet on short notice if the there are available appointment slots.</t>
+    <t>The appointment is a group session.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -247,9 +247,6 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -257,6 +254,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -279,21 +280,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -309,10 +300,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -337,9 +324,6 @@
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>The appointment is a group session.</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -468,10 +452,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -661,7 +645,7 @@
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -840,10 +824,10 @@
         <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -900,13 +884,13 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>73</v>
@@ -1024,14 +1008,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1043,17 +1027,15 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>73</v>
@@ -1090,42 +1072,42 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1148,16 +1130,16 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1207,7 +1189,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1222,15 +1204,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1253,13 +1235,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1310,7 +1292,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1322,10 +1304,10 @@
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:15:19+00:00</t>
+    <t>2024-05-29T11:27:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:27:53+00:00</t>
+    <t>2024-05-29T11:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:39:51+00:00</t>
+    <t>2025-03-27T21:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T21:37:45+00:00</t>
+    <t>2025-10-16T20:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -642,42 +642,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:19:25+00:00</t>
+    <t>2025-10-16T20:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:37:15+00:00</t>
+    <t>2025-10-17T19:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:50:01+00:00</t>
+    <t>2025-10-17T19:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:53:44+00:00</t>
+    <t>2025-10-17T20:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:15:52+00:00</t>
+    <t>2025-10-17T20:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:41:05+00:00</t>
+    <t>2025-10-17T20:48:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-group.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-group</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-group</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:48:12+00:00</t>
+    <t>2025-10-31T06:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
